--- a/整合結果/EPU匯出結果/2025-06-12/2025-06-12_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-12/2025-06-12_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$78:$A$79</f>
+              <f>'Sheet1'!$A$83:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$78:$B$79</f>
+              <f>'Sheet1'!$B$83:$B$84</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>77</row>
+      <row>82</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2937,42 +2937,197 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-06-12_0915_自由時報_財經_黃金小漲要破「1高點價格」有機會？但專家揭「1狀況」.txt</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>PPI、美元、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CPI、Fed、降息、消費者物價指數、殖利率、聯準會</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>通膨</t>
+        </is>
+      </c>
+    </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-06-12_1043_自由時報_財經_北台下半年百億級大案 獨缺桃園.txt</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>房市、經濟</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>不明</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>18</v>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-06-12_1243_自由時報_財經_設籍有撇步！成年子女設籍地價稅再享自用住宅優惠稅率.txt</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>56</v>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-06-12_1400_自由時報_財經_衝動購物只能排第2名！美國人最常見的5大浪費行為曝光.txt</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-06-12_1512_自由時報_財經_329檔期喚不回買氣 4月全國預售屋揭露不到4千件.txt</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>不動產、房市、經濟</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>央行、信用管制、預算</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>24.32%</t>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>24.05%</t>
         </is>
       </c>
     </row>
